--- a/docs/Homework/Tanzania_data.xlsx
+++ b/docs/Homework/Tanzania_data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28627"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://calvincollege-my.sharepoint.com/personal/ena5_calvin_edu/Documents/Spring 2025/Data 304/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8A752BF-C9C7-4F01-998C-6FDA99C93C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{A8A752BF-C9C7-4F01-998C-6FDA99C93C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{484E747A-23CA-4D94-9B70-FFC72625C8C5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BCC67C4B-63AB-4202-9239-E40CA187F57D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tanzania data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,12 +38,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
     <t>fertlity_rate</t>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
     <t>contraception_use</t>
   </si>
   <si>
@@ -57,9 +60,6 @@
   </si>
   <si>
     <t>1991-1992</t>
-  </si>
-  <si>
-    <t>date</t>
   </si>
 </sst>
 </file>
@@ -67,9 +67,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,11 +109,11 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,38 +451,38 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" s="6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>42370</v>
@@ -497,7 +497,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="3">
         <v>2010</v>
       </c>
@@ -514,9 +514,9 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>38353</v>
@@ -531,7 +531,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="3">
         <v>1999</v>
       </c>
@@ -548,7 +548,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="3">
         <v>1996</v>
       </c>
@@ -565,9 +565,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>33604</v>

--- a/docs/Homework/Tanzania_data.xlsx
+++ b/docs/Homework/Tanzania_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28627"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://calvincollege-my.sharepoint.com/personal/ena5_calvin_edu/Documents/Spring 2025/Data 304/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://calvincollege-my.sharepoint.com/personal/ena5_calvin_edu/Documents/Spring 2025/Data 304/Ella-Data304/docs/Homework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{A8A752BF-C9C7-4F01-998C-6FDA99C93C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{173779E2-0EEC-457A-8562-15880C27A9A5}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{A8A752BF-C9C7-4F01-998C-6FDA99C93C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E9DCDEB-DDE8-49F5-AACA-1E51A48089C4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BCC67C4B-63AB-4202-9239-E40CA187F57D}"/>
   </bookViews>
@@ -56,28 +56,28 @@
     <t>2015-2016</t>
   </si>
   <si>
-    <t>2016-1-01</t>
-  </si>
-  <si>
-    <t>2010-7-01</t>
-  </si>
-  <si>
     <t>2004-2005</t>
   </si>
   <si>
-    <t>2005-1-01</t>
-  </si>
-  <si>
-    <t>1999-7-01</t>
-  </si>
-  <si>
-    <t>1996-7-01</t>
-  </si>
-  <si>
     <t>1991-1992</t>
   </si>
   <si>
-    <t>1992-1-01</t>
+    <t>2016-01-01</t>
+  </si>
+  <si>
+    <t>2010-07-01</t>
+  </si>
+  <si>
+    <t>2005-01-01</t>
+  </si>
+  <si>
+    <t>1999-07-01</t>
+  </si>
+  <si>
+    <t>1996-07-01</t>
+  </si>
+  <si>
+    <t>1992-01-01</t>
   </si>
 </sst>
 </file>
@@ -87,7 +87,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +145,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -467,18 +471,18 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="11.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -495,12 +499,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>5.2</v>
@@ -512,12 +516,12 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2010</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1">
         <v>5.4</v>
@@ -529,12 +533,12 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
         <v>5.7</v>
@@ -546,12 +550,12 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1999</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>5.6</v>
@@ -563,12 +567,12 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1996</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1">
         <v>5.8</v>
@@ -580,9 +584,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>

--- a/docs/Homework/Tanzania_data.xlsx
+++ b/docs/Homework/Tanzania_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://calvincollege-my.sharepoint.com/personal/ena5_calvin_edu/Documents/Spring 2025/Data 304/Ella-Data304/docs/Homework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{A8A752BF-C9C7-4F01-998C-6FDA99C93C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E9DCDEB-DDE8-49F5-AACA-1E51A48089C4}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{A8A752BF-C9C7-4F01-998C-6FDA99C93C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ABE47DE-0F36-4B0D-8DA7-63B23D56F624}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BCC67C4B-63AB-4202-9239-E40CA187F57D}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>fertlity_rate</t>
-  </si>
-  <si>
     <t>contraception_use</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>1992-01-01</t>
+  </si>
+  <si>
+    <t>fertility_rate</t>
   </si>
 </sst>
 </file>
@@ -471,15 +471,15 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="11.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -490,21 +490,21 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1">
         <v>5.2</v>
@@ -521,7 +521,7 @@
         <v>2010</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>5.4</v>
@@ -535,10 +535,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1">
         <v>5.7</v>
@@ -555,7 +555,7 @@
         <v>1999</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>5.6</v>
@@ -572,7 +572,7 @@
         <v>1996</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
         <v>5.8</v>
@@ -586,10 +586,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1">
         <v>6.2</v>

--- a/docs/Homework/Tanzania_data.xlsx
+++ b/docs/Homework/Tanzania_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://calvincollege-my.sharepoint.com/personal/ena5_calvin_edu/Documents/Spring 2025/Data 304/Ella-Data304/docs/Homework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{A8A752BF-C9C7-4F01-998C-6FDA99C93C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ABE47DE-0F36-4B0D-8DA7-63B23D56F624}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{A8A752BF-C9C7-4F01-998C-6FDA99C93C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60F025CE-A3AC-4E2E-88E4-D3F10A45DAF6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BCC67C4B-63AB-4202-9239-E40CA187F57D}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>contraception_use</t>
   </si>
   <si>
-    <t>fam_plan_need</t>
-  </si>
-  <si>
     <t>2015-2016</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>fertility_rate</t>
+  </si>
+  <si>
+    <t>fam_plan_unmet</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,7 +479,7 @@
     <col min="1" max="2" width="11.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -490,21 +490,21 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
         <v>5.2</v>
@@ -521,7 +521,7 @@
         <v>2010</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>5.4</v>
@@ -535,10 +535,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
         <v>5.7</v>
@@ -555,7 +555,7 @@
         <v>1999</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1">
         <v>5.6</v>
@@ -572,7 +572,7 @@
         <v>1996</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
         <v>5.8</v>
@@ -586,10 +586,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1">
         <v>6.2</v>
